--- a/Result_files/V3_Bids_2020-02-24_2020-03-01.xlsx
+++ b/Result_files/V3_Bids_2020-02-24_2020-03-01.xlsx
@@ -560,7 +560,7 @@
         <v>21.51799999999997</v>
       </c>
       <c r="J2" t="n">
-        <v>-979.6147600485255</v>
+        <v>-979.6147600485325</v>
       </c>
       <c r="K2" t="n">
         <v>10.96</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.953</v>
+        <v>15.494</v>
       </c>
       <c r="J7" t="n">
-        <v>632.882512138131</v>
+        <v>453.1771523472377</v>
       </c>
       <c r="K7" t="n">
         <v>1.39</v>
@@ -896,7 +896,7 @@
         <v>7.931</v>
       </c>
       <c r="J8" t="n">
-        <v>1017.287686679802</v>
+        <v>463.7958141296353</v>
       </c>
       <c r="K8" t="n">
         <v>11.68</v>
@@ -940,19 +940,19 @@
         <v>0.54</v>
       </c>
       <c r="F9" t="n">
-        <v>36.1</v>
+        <v>34.5</v>
       </c>
       <c r="G9" t="n">
         <v>7.887999999999977</v>
       </c>
       <c r="H9" t="n">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="I9" t="n">
         <v>6.312999999999988</v>
       </c>
       <c r="J9" t="n">
-        <v>14.13179741667469</v>
+        <v>-356.4400199651693</v>
       </c>
       <c r="K9" t="n">
         <v>14.95</v>
@@ -996,19 +996,19 @@
         <v>0.54</v>
       </c>
       <c r="F10" t="n">
-        <v>41.3</v>
+        <v>42.3</v>
       </c>
       <c r="G10" t="n">
         <v>7.887999999999977</v>
       </c>
       <c r="H10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
         <v>6.312999999999988</v>
       </c>
       <c r="J10" t="n">
-        <v>-545.0235081942105</v>
+        <v>-548.6239605</v>
       </c>
       <c r="K10" t="n">
         <v>14.18</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-302.644415856366</v>
+        <v>-433.248326510279</v>
       </c>
       <c r="K11" t="n">
         <v>13.24</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-295.6195129592764</v>
+        <v>-1038.427715063399</v>
       </c>
       <c r="K12" t="n">
         <v>13.11</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.81348307933808</v>
+        <v>-1350.699951362845</v>
       </c>
       <c r="K13" t="n">
         <v>13</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>270.8103579126353</v>
+        <v>-1259.332442250385</v>
       </c>
       <c r="K14" t="n">
         <v>12.85</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>616.5839673902667</v>
+        <v>-660.944892358361</v>
       </c>
       <c r="K15" t="n">
         <v>12.77</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1211.550167378203</v>
+        <v>-370.9381337332115</v>
       </c>
       <c r="K16" t="n">
         <v>13</v>
@@ -1400,7 +1400,7 @@
         <v>5.318</v>
       </c>
       <c r="J17" t="n">
-        <v>1134.134832513022</v>
+        <v>-350.5666529321762</v>
       </c>
       <c r="K17" t="n">
         <v>12.94</v>
@@ -1456,7 +1456,7 @@
         <v>5.318</v>
       </c>
       <c r="J18" t="n">
-        <v>1298.911167480803</v>
+        <v>-426.9017628001821</v>
       </c>
       <c r="K18" t="n">
         <v>13.67</v>
@@ -1500,19 +1500,19 @@
         <v>0.3299999999999272</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="G19" t="n">
-        <v>8.122999999999999</v>
+        <v>6.428999999999917</v>
       </c>
       <c r="H19" t="n">
-        <v>47.8</v>
+        <v>34.3</v>
       </c>
       <c r="I19" t="n">
         <v>5.252999999999986</v>
       </c>
       <c r="J19" t="n">
-        <v>-88.75689512511947</v>
+        <v>-435.9483463500001</v>
       </c>
       <c r="K19" t="n">
         <v>14.12</v>
@@ -1556,19 +1556,19 @@
         <v>0.3299999999999272</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>7.975</v>
+        <v>6.769000000000005</v>
       </c>
       <c r="H20" t="n">
-        <v>47.8</v>
+        <v>41.7</v>
       </c>
       <c r="I20" t="n">
         <v>5.253999999999962</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.858795430323003</v>
+        <v>-421.4105986300004</v>
       </c>
       <c r="K20" t="n">
         <v>14.6</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.975</v>
+        <v>6.965</v>
       </c>
       <c r="H21" t="n">
         <v>47.8</v>
@@ -1624,7 +1624,7 @@
         <v>5.253999999999962</v>
       </c>
       <c r="J21" t="n">
-        <v>-92.05781704146109</v>
+        <v>-102.6202799161723</v>
       </c>
       <c r="K21" t="n">
         <v>13.73</v>
@@ -1680,7 +1680,7 @@
         <v>5.319</v>
       </c>
       <c r="J22" t="n">
-        <v>1345.370521720467</v>
+        <v>1342.928683270467</v>
       </c>
       <c r="K22" t="n">
         <v>12.94</v>
@@ -1736,7 +1736,7 @@
         <v>11.486</v>
       </c>
       <c r="J23" t="n">
-        <v>1004.536986592407</v>
+        <v>1003.795579372611</v>
       </c>
       <c r="K23" t="n">
         <v>12.22</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>21.919</v>
+        <v>20.633</v>
       </c>
       <c r="H26" t="n">
         <v>47.8</v>
@@ -1904,7 +1904,7 @@
         <v>24.72999999999996</v>
       </c>
       <c r="J26" t="n">
-        <v>-1054.001709517304</v>
+        <v>-1054.001709517302</v>
       </c>
       <c r="K26" t="n">
         <v>13.85</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>275.4386261548381</v>
+        <v>135.5855873865847</v>
       </c>
       <c r="K28" t="n">
         <v>13.39</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1729.565355576773</v>
+        <v>134.4797423060729</v>
       </c>
       <c r="K29" t="n">
         <v>13.2</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1736.295687109631</v>
+        <v>135.5275203803312</v>
       </c>
       <c r="K30" t="n">
         <v>13.11</v>
@@ -2184,7 +2184,7 @@
         <v>15.88399999999996</v>
       </c>
       <c r="J31" t="n">
-        <v>-619.8211041432289</v>
+        <v>-809.6690954038953</v>
       </c>
       <c r="K31" t="n">
         <v>13.6</v>
@@ -2228,19 +2228,19 @@
         <v>0.2899999999999636</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="G32" t="n">
-        <v>8.018000000000001</v>
+        <v>7.225999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>47.8</v>
+        <v>16.6</v>
       </c>
       <c r="I32" t="n">
         <v>7.467999999999904</v>
       </c>
       <c r="J32" t="n">
-        <v>-281.6165653580998</v>
+        <v>-521.5954687800004</v>
       </c>
       <c r="K32" t="n">
         <v>13.14</v>
@@ -2284,19 +2284,19 @@
         <v>0.2899999999999636</v>
       </c>
       <c r="F33" t="n">
-        <v>7.800000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="G33" t="n">
         <v>8.089999999999975</v>
       </c>
       <c r="H33" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>6.286000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>-477.7711160399999</v>
+        <v>-758.9314798449061</v>
       </c>
       <c r="K33" t="n">
         <v>13.31</v>
@@ -2340,19 +2340,19 @@
         <v>0.4</v>
       </c>
       <c r="F34" t="n">
-        <v>22.6</v>
+        <v>47.8</v>
       </c>
       <c r="G34" t="n">
         <v>8.089999999999975</v>
       </c>
       <c r="H34" t="n">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>6.286000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>-506.2510416800001</v>
+        <v>-1055.294075101177</v>
       </c>
       <c r="K34" t="n">
         <v>13.68</v>
@@ -2390,7 +2390,7 @@
         <v>145</v>
       </c>
       <c r="D35" t="n">
-        <v>35.1</v>
+        <v>47.8</v>
       </c>
       <c r="E35" t="n">
         <v>0.4</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-176.0499199999997</v>
+        <v>-865.2552762308837</v>
       </c>
       <c r="K35" t="n">
         <v>13.93</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-181.1299199999999</v>
+        <v>-1883.41904647081</v>
       </c>
       <c r="K36" t="n">
         <v>14.2</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-647.4856240650221</v>
+        <v>-1609.285980102701</v>
       </c>
       <c r="K37" t="n">
         <v>14.6</v>
@@ -2558,7 +2558,7 @@
         <v>145</v>
       </c>
       <c r="D38" t="n">
-        <v>41.1</v>
+        <v>47.8</v>
       </c>
       <c r="E38" t="n">
         <v>0.4</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-178.4499200000001</v>
+        <v>-2164.372591290263</v>
       </c>
       <c r="K38" t="n">
         <v>13.98</v>
@@ -2614,7 +2614,7 @@
         <v>145</v>
       </c>
       <c r="D39" t="n">
-        <v>21.4</v>
+        <v>47.8</v>
       </c>
       <c r="E39" t="n">
         <v>0.4</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-170.56992</v>
+        <v>-1530.751649379345</v>
       </c>
       <c r="K39" t="n">
         <v>13.92</v>
@@ -2670,7 +2670,7 @@
         <v>145</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>47.8</v>
       </c>
       <c r="E40" t="n">
         <v>0.4</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-166.4099199999999</v>
+        <v>-987.7730095763296</v>
       </c>
       <c r="K40" t="n">
         <v>13.96</v>
@@ -2732,19 +2732,19 @@
         <v>0.4</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G41" t="n">
         <v>6.738</v>
       </c>
       <c r="H41" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>5.276999999999987</v>
       </c>
       <c r="J41" t="n">
-        <v>-398.3102636464092</v>
+        <v>-701.7198106972959</v>
       </c>
       <c r="K41" t="n">
         <v>14.6</v>
@@ -2788,19 +2788,19 @@
         <v>0.4</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="G42" t="n">
-        <v>7.114</v>
+        <v>6.738</v>
       </c>
       <c r="H42" t="n">
-        <v>47.8</v>
+        <v>13.7</v>
       </c>
       <c r="I42" t="n">
         <v>5.276999999999987</v>
       </c>
       <c r="J42" t="n">
-        <v>-103.4015252955219</v>
+        <v>-472.5377357799998</v>
       </c>
       <c r="K42" t="n">
         <v>14.39</v>
@@ -2844,19 +2844,19 @@
         <v>0.4</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="G43" t="n">
-        <v>7.239</v>
+        <v>6.738</v>
       </c>
       <c r="H43" t="n">
-        <v>47.8</v>
+        <v>28.1</v>
       </c>
       <c r="I43" t="n">
         <v>5.276999999999987</v>
       </c>
       <c r="J43" t="n">
-        <v>-89.02685675421833</v>
+        <v>-448.0467082599999</v>
       </c>
       <c r="K43" t="n">
         <v>15.49</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.335</v>
+        <v>6.541999999999973</v>
       </c>
       <c r="H44" t="n">
         <v>47.8</v>
@@ -2912,7 +2912,7 @@
         <v>5.277999999999963</v>
       </c>
       <c r="J44" t="n">
-        <v>-17.09927335408324</v>
+        <v>-387.3284159778829</v>
       </c>
       <c r="K44" t="n">
         <v>30.620001</v>
@@ -2968,7 +2968,7 @@
         <v>5.277999999999963</v>
       </c>
       <c r="J45" t="n">
-        <v>-99.27267705555742</v>
+        <v>-107.5017993114771</v>
       </c>
       <c r="K45" t="n">
         <v>15.46</v>
@@ -3012,19 +3012,19 @@
         <v>0.2699999999999818</v>
       </c>
       <c r="F46" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.541999999999973</v>
+        <v>6.965</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I46" t="n">
         <v>5.277999999999963</v>
       </c>
       <c r="J46" t="n">
-        <v>1449.063060098912</v>
+        <v>-111.8265617810874</v>
       </c>
       <c r="K46" t="n">
         <v>13.6</v>
@@ -3124,19 +3124,19 @@
         <v>0.27</v>
       </c>
       <c r="F48" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>11.28899999999999</v>
+        <v>11.784</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I48" t="n">
         <v>11.43899999999991</v>
       </c>
       <c r="J48" t="n">
-        <v>1184.186694935299</v>
+        <v>-412.0025822589992</v>
       </c>
       <c r="K48" t="n">
         <v>12.98</v>
@@ -3180,19 +3180,19 @@
         <v>0.27</v>
       </c>
       <c r="F49" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>16.05000000000001</v>
+        <v>17.965</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I49" t="n">
         <v>16.75899999999996</v>
       </c>
       <c r="J49" t="n">
-        <v>898.9154736382516</v>
+        <v>-672.8181750960472</v>
       </c>
       <c r="K49" t="n">
         <v>12.15</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>21.919</v>
+        <v>20.633</v>
       </c>
       <c r="H50" t="n">
         <v>47.8</v>
@@ -3248,7 +3248,7 @@
         <v>21.55500000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>-1083.114435963315</v>
+        <v>-1085.537757288314</v>
       </c>
       <c r="K50" t="n">
         <v>19.77</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1475.623161646701</v>
+        <v>1475.6231616467</v>
       </c>
       <c r="K51" t="n">
         <v>19.66</v>
@@ -3528,7 +3528,7 @@
         <v>15.9</v>
       </c>
       <c r="J55" t="n">
-        <v>688.5001889292716</v>
+        <v>619.6490951220358</v>
       </c>
       <c r="K55" t="n">
         <v>20.610001</v>
@@ -3572,19 +3572,19 @@
         <v>0.4</v>
       </c>
       <c r="F56" t="n">
-        <v>47.8</v>
+        <v>4.5</v>
       </c>
       <c r="G56" t="n">
         <v>7.423999999999921</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>43.3</v>
       </c>
       <c r="I56" t="n">
-        <v>7.87</v>
+        <v>7.47399999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>1299.23954318098</v>
+        <v>-529.1773493199997</v>
       </c>
       <c r="K56" t="n">
         <v>21.18</v>
@@ -3640,7 +3640,7 @@
         <v>6.639</v>
       </c>
       <c r="J57" t="n">
-        <v>1101.35533566962</v>
+        <v>-637.7972339597321</v>
       </c>
       <c r="K57" t="n">
         <v>22.30001</v>
@@ -3696,7 +3696,7 @@
         <v>6.639</v>
       </c>
       <c r="J58" t="n">
-        <v>580.426284306262</v>
+        <v>-1051.66237043558</v>
       </c>
       <c r="K58" t="n">
         <v>22.43</v>
@@ -3734,7 +3734,7 @@
         <v>135</v>
       </c>
       <c r="D59" t="n">
-        <v>31.9</v>
+        <v>47.8</v>
       </c>
       <c r="E59" t="n">
         <v>0.4</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-174.0813963645539</v>
+        <v>-909.0279091478403</v>
       </c>
       <c r="K59" t="n">
         <v>22.33</v>
@@ -3790,7 +3790,7 @@
         <v>135</v>
       </c>
       <c r="D60" t="n">
-        <v>40.1</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>0.4</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-178.140378</v>
+        <v>-178.8603779999997</v>
       </c>
       <c r="K60" t="n">
         <v>22.450001</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-638.1407632561087</v>
+        <v>-1077.200805227664</v>
       </c>
       <c r="K61" t="n">
         <v>22.41</v>
@@ -3902,7 +3902,7 @@
         <v>135</v>
       </c>
       <c r="D62" t="n">
-        <v>31.3</v>
+        <v>47.8</v>
       </c>
       <c r="E62" t="n">
         <v>0.4</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-173.1679110185102</v>
+        <v>-1001.863731436601</v>
       </c>
       <c r="K62" t="n">
         <v>22.389999</v>
@@ -3958,7 +3958,7 @@
         <v>135</v>
       </c>
       <c r="D63" t="n">
-        <v>19.7</v>
+        <v>43.5</v>
       </c>
       <c r="E63" t="n">
         <v>0.4</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-169.6454691338846</v>
+        <v>-179.5003780000002</v>
       </c>
       <c r="K63" t="n">
         <v>22.32</v>
@@ -4014,7 +4014,7 @@
         <v>135</v>
       </c>
       <c r="D64" t="n">
-        <v>7.800000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="E64" t="n">
         <v>0.4</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-165.2203779999998</v>
+        <v>-224.2312413416183</v>
       </c>
       <c r="K64" t="n">
         <v>22.219999</v>
@@ -4088,7 +4088,7 @@
         <v>6.139</v>
       </c>
       <c r="J65" t="n">
-        <v>1268.346621710342</v>
+        <v>-1207.098398901324</v>
       </c>
       <c r="K65" t="n">
         <v>22.33</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>5.283999999999999</v>
+        <v>6.139</v>
       </c>
       <c r="J66" t="n">
-        <v>1463.317974965941</v>
+        <v>-614.2605523317034</v>
       </c>
       <c r="K66" t="n">
         <v>22.469999</v>
@@ -4188,19 +4188,19 @@
         <v>0.4</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="G67" t="n">
-        <v>7.239</v>
+        <v>6.772999999999968</v>
       </c>
       <c r="H67" t="n">
-        <v>47.8</v>
+        <v>35</v>
       </c>
       <c r="I67" t="n">
         <v>5.241999999999905</v>
       </c>
       <c r="J67" t="n">
-        <v>-112.1189478686511</v>
+        <v>-445.43838634</v>
       </c>
       <c r="K67" t="n">
         <v>24.25</v>
@@ -4244,19 +4244,19 @@
         <v>0.4</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G68" t="n">
-        <v>6.965</v>
+        <v>6.78</v>
       </c>
       <c r="H68" t="n">
-        <v>47.8</v>
+        <v>46.5</v>
       </c>
       <c r="I68" t="n">
         <v>5.242999999999995</v>
       </c>
       <c r="J68" t="n">
-        <v>-116.6955949298282</v>
+        <v>-426.7935162110356</v>
       </c>
       <c r="K68" t="n">
         <v>22.16</v>
@@ -4300,19 +4300,19 @@
         <v>0.4</v>
       </c>
       <c r="F69" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>6.78</v>
+        <v>6.965</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I69" t="n">
-        <v>5.285</v>
+        <v>5.242999999999995</v>
       </c>
       <c r="J69" t="n">
-        <v>1472.010450301412</v>
+        <v>-119.6554599489753</v>
       </c>
       <c r="K69" t="n">
         <v>21.34</v>
@@ -4356,19 +4356,19 @@
         <v>0.4</v>
       </c>
       <c r="F70" t="n">
-        <v>47.8</v>
+        <v>17.7</v>
       </c>
       <c r="G70" t="n">
         <v>6.78</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="I70" t="n">
-        <v>6.181</v>
+        <v>5.242999999999995</v>
       </c>
       <c r="J70" t="n">
-        <v>1380.477197959276</v>
+        <v>426.1075628892739</v>
       </c>
       <c r="K70" t="n">
         <v>21.2</v>
@@ -4421,10 +4421,10 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>11.275</v>
+        <v>12.04</v>
       </c>
       <c r="J71" t="n">
-        <v>1051.292743563092</v>
+        <v>1049.315297007958</v>
       </c>
       <c r="K71" t="n">
         <v>20.74</v>
@@ -4480,7 +4480,7 @@
         <v>11.275</v>
       </c>
       <c r="J72" t="n">
-        <v>1073.034555403125</v>
+        <v>1070.651352628126</v>
       </c>
       <c r="K72" t="n">
         <v>20.27</v>
@@ -4536,7 +4536,7 @@
         <v>16.53</v>
       </c>
       <c r="J73" t="n">
-        <v>603.2916063337987</v>
+        <v>603.2916063337988</v>
       </c>
       <c r="K73" t="n">
         <v>19.559999</v>
@@ -4580,19 +4580,19 @@
         <v>0.33</v>
       </c>
       <c r="F74" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>20.63299999999998</v>
+        <v>21.919</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I74" t="n">
-        <v>21.63</v>
+        <v>21.60499999999996</v>
       </c>
       <c r="J74" t="n">
-        <v>593.2347488106137</v>
+        <v>-956.2692336592058</v>
       </c>
       <c r="K74" t="n">
         <v>3.12</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1551.077508608931</v>
+        <v>1551.07750860893</v>
       </c>
       <c r="K75" t="n">
         <v>0.88</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1532.806156690335</v>
+        <v>1532.806156690336</v>
       </c>
       <c r="K76" t="n">
         <v>0.7</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1538.704983865814</v>
+        <v>1538.704983865813</v>
       </c>
       <c r="K77" t="n">
         <v>0.8</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1632.323338058929</v>
+        <v>1629.935743080191</v>
       </c>
       <c r="K78" t="n">
         <v>5.29</v>
@@ -4872,7 +4872,7 @@
         <v>15.13499999999999</v>
       </c>
       <c r="J79" t="n">
-        <v>-603.4902434668313</v>
+        <v>-621.4871824169172</v>
       </c>
       <c r="K79" t="n">
         <v>12.94</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>8.018000000000001</v>
+        <v>7.726</v>
       </c>
       <c r="H80" t="n">
         <v>47.8</v>
@@ -4928,7 +4928,7 @@
         <v>7.887</v>
       </c>
       <c r="J80" t="n">
-        <v>-444.2501539881284</v>
+        <v>-294.2776658285428</v>
       </c>
       <c r="K80" t="n">
         <v>13.5</v>
@@ -4969,22 +4969,22 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="F81" t="n">
-        <v>26.4</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>8.062999999999988</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>21.4</v>
+        <v>47.8</v>
       </c>
       <c r="I81" t="n">
         <v>6.515999999999906</v>
       </c>
       <c r="J81" t="n">
-        <v>-522.2346701819844</v>
+        <v>-339.7820855114561</v>
       </c>
       <c r="K81" t="n">
         <v>14.39</v>
@@ -5028,19 +5028,19 @@
         <v>0.33</v>
       </c>
       <c r="F82" t="n">
-        <v>31.2</v>
+        <v>14.1</v>
       </c>
       <c r="G82" t="n">
         <v>8.062999999999988</v>
       </c>
       <c r="H82" t="n">
-        <v>16.6</v>
+        <v>33.7</v>
       </c>
       <c r="I82" t="n">
         <v>6.515999999999906</v>
       </c>
       <c r="J82" t="n">
-        <v>-530.7240700799999</v>
+        <v>-500.4572238487202</v>
       </c>
       <c r="K82" t="n">
         <v>14.19</v>
@@ -5078,7 +5078,7 @@
         <v>145</v>
       </c>
       <c r="D83" t="n">
-        <v>39.1</v>
+        <v>45.6</v>
       </c>
       <c r="E83" t="n">
         <v>0.33</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-176.9991314000002</v>
+        <v>-179.4182973212065</v>
       </c>
       <c r="K83" t="n">
         <v>14.13</v>
@@ -5134,7 +5134,7 @@
         <v>145</v>
       </c>
       <c r="D84" t="n">
-        <v>41.8</v>
+        <v>47.8</v>
       </c>
       <c r="E84" t="n">
         <v>0.27</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-177.202843365077</v>
+        <v>-219.1473525443947</v>
       </c>
       <c r="K84" t="n">
         <v>14.32</v>
@@ -5190,7 +5190,7 @@
         <v>145</v>
       </c>
       <c r="D85" t="n">
-        <v>47.40000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="E85" t="n">
         <v>0.27</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-179.3582321931425</v>
+        <v>-275.0030839345985</v>
       </c>
       <c r="K85" t="n">
         <v>13.93</v>
@@ -5246,7 +5246,7 @@
         <v>145</v>
       </c>
       <c r="D86" t="n">
-        <v>35.9</v>
+        <v>29.2</v>
       </c>
       <c r="E86" t="n">
         <v>0.33</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-175.0257848156118</v>
+        <v>-172.6391656000001</v>
       </c>
       <c r="K86" t="n">
         <v>13.69</v>
@@ -5302,7 +5302,7 @@
         <v>145</v>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E87" t="n">
         <v>0.33</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-165.6848959999998</v>
+        <v>-177.7740042</v>
       </c>
       <c r="K87" t="n">
         <v>13.68</v>
@@ -5358,7 +5358,7 @@
         <v>145</v>
       </c>
       <c r="D88" t="n">
-        <v>33.8</v>
+        <v>47.8</v>
       </c>
       <c r="E88" t="n">
         <v>0.27</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-173.9624196000001</v>
+        <v>-207.5342292553714</v>
       </c>
       <c r="K88" t="n">
         <v>13.54</v>
@@ -5420,19 +5420,19 @@
         <v>0.27</v>
       </c>
       <c r="F89" t="n">
-        <v>8.1</v>
+        <v>20.9</v>
       </c>
       <c r="G89" t="n">
         <v>7.113999999999976</v>
       </c>
       <c r="H89" t="n">
-        <v>39.7</v>
+        <v>26.9</v>
       </c>
       <c r="I89" t="n">
         <v>5.27499999999992</v>
       </c>
       <c r="J89" t="n">
-        <v>-445.0473186522444</v>
+        <v>-464.4869102591595</v>
       </c>
       <c r="K89" t="n">
         <v>13.56</v>
@@ -5473,22 +5473,22 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G90" t="n">
-        <v>7.239</v>
+        <v>7.113999999999976</v>
       </c>
       <c r="H90" t="n">
-        <v>47.8</v>
+        <v>40.3</v>
       </c>
       <c r="I90" t="n">
         <v>5.27499999999992</v>
       </c>
       <c r="J90" t="n">
-        <v>-201.7424384189416</v>
+        <v>-445.9718817800002</v>
       </c>
       <c r="K90" t="n">
         <v>13.71</v>
@@ -5544,7 +5544,7 @@
         <v>5.27499999999992</v>
       </c>
       <c r="J91" t="n">
-        <v>-83.37658452144761</v>
+        <v>-428.4615569689904</v>
       </c>
       <c r="K91" t="n">
         <v>14.2</v>
@@ -5600,7 +5600,7 @@
         <v>5.27600000000001</v>
       </c>
       <c r="J92" t="n">
-        <v>-72.48566569792568</v>
+        <v>-167.4889727481895</v>
       </c>
       <c r="K92" t="n">
         <v>13.95</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>7.335</v>
+        <v>7.282</v>
       </c>
       <c r="H93" t="n">
         <v>47.8</v>
@@ -5768,7 +5768,7 @@
         <v>11.327</v>
       </c>
       <c r="J95" t="n">
-        <v>-406.7524022637627</v>
+        <v>-406.752402263762</v>
       </c>
       <c r="K95" t="n">
         <v>13.42</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>11.784</v>
+        <v>12.448</v>
       </c>
       <c r="H96" t="n">
         <v>47.8</v>
@@ -5824,7 +5824,7 @@
         <v>11.327</v>
       </c>
       <c r="J96" t="n">
-        <v>-411.3119581046897</v>
+        <v>-411.3119581046913</v>
       </c>
       <c r="K96" t="n">
         <v>12.99</v>
@@ -5868,19 +5868,19 @@
         <v>0.33</v>
       </c>
       <c r="F97" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>17.09999999999997</v>
+        <v>17.965</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I97" t="n">
         <v>16.608</v>
       </c>
       <c r="J97" t="n">
-        <v>961.9931584252662</v>
+        <v>-665.1671297943727</v>
       </c>
       <c r="K97" t="n">
         <v>12.71</v>
@@ -5933,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>25.736</v>
+        <v>21.782</v>
       </c>
       <c r="J98" t="n">
-        <v>542.2842694706326</v>
+        <v>542.2842694706331</v>
       </c>
       <c r="K98" t="n">
         <v>19.77</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1578.944569945063</v>
+        <v>1578.944569945062</v>
       </c>
       <c r="K99" t="n">
         <v>19.66</v>
@@ -6204,19 +6204,19 @@
         <v>0.33</v>
       </c>
       <c r="F103" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>15.28199999999998</v>
+        <v>15.889</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I103" t="n">
-        <v>15.953</v>
+        <v>15.34399999999999</v>
       </c>
       <c r="J103" t="n">
-        <v>1014.757489526242</v>
+        <v>-640.4224591180013</v>
       </c>
       <c r="K103" t="n">
         <v>20.610001</v>
@@ -6260,19 +6260,19 @@
         <v>0.1299999999996544</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G104" t="n">
-        <v>7.726</v>
+        <v>7.314999999999998</v>
       </c>
       <c r="H104" t="n">
-        <v>47.8</v>
+        <v>45.1</v>
       </c>
       <c r="I104" t="n">
         <v>7.467999999999904</v>
       </c>
       <c r="J104" t="n">
-        <v>-339.4109649707282</v>
+        <v>-529.3585347100001</v>
       </c>
       <c r="K104" t="n">
         <v>21.18</v>
@@ -6316,19 +6316,19 @@
         <v>0.54</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G105" t="n">
-        <v>8.178000000000001</v>
+        <v>7.887999999999977</v>
       </c>
       <c r="H105" t="n">
-        <v>47.8</v>
+        <v>24.3</v>
       </c>
       <c r="I105" t="n">
         <v>6.286000000000001</v>
       </c>
       <c r="J105" t="n">
-        <v>-430.7499695155682</v>
+        <v>-506.4313979300004</v>
       </c>
       <c r="K105" t="n">
         <v>22.30001</v>
@@ -6372,19 +6372,19 @@
         <v>0.54</v>
       </c>
       <c r="F106" t="n">
-        <v>22.5</v>
+        <v>46.2</v>
       </c>
       <c r="G106" t="n">
         <v>7.887999999999977</v>
       </c>
       <c r="H106" t="n">
-        <v>25.3</v>
+        <v>1.6</v>
       </c>
       <c r="I106" t="n">
         <v>6.286000000000001</v>
       </c>
       <c r="J106" t="n">
-        <v>-504.2965612508452</v>
+        <v>-542.7341209600014</v>
       </c>
       <c r="K106" t="n">
         <v>22.43</v>
@@ -6422,7 +6422,7 @@
         <v>150</v>
       </c>
       <c r="D107" t="n">
-        <v>24</v>
+        <v>40.2</v>
       </c>
       <c r="E107" t="n">
         <v>0.33</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-172.1556719517685</v>
+        <v>-179.0936351999998</v>
       </c>
       <c r="K107" t="n">
         <v>22.33</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-689.8503210213219</v>
+        <v>-514.505005785042</v>
       </c>
       <c r="K108" t="n">
         <v>22.450001</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-428.5663488393488</v>
+        <v>-579.7418568254627</v>
       </c>
       <c r="K109" t="n">
         <v>22.41</v>
@@ -6590,7 +6590,7 @@
         <v>150</v>
       </c>
       <c r="D110" t="n">
-        <v>47.8</v>
+        <v>28</v>
       </c>
       <c r="E110" t="n">
         <v>0.27</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-882.848685775149</v>
+        <v>-173.080194026954</v>
       </c>
       <c r="K110" t="n">
         <v>22.389999</v>
@@ -6646,7 +6646,7 @@
         <v>150</v>
       </c>
       <c r="D111" t="n">
-        <v>47.8</v>
+        <v>17.8</v>
       </c>
       <c r="E111" t="n">
         <v>0.27</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>-324.4210462401031</v>
+        <v>-168.8084596005605</v>
       </c>
       <c r="K111" t="n">
         <v>22.32</v>
@@ -6702,7 +6702,7 @@
         <v>150</v>
       </c>
       <c r="D112" t="n">
-        <v>19.2</v>
+        <v>24.2</v>
       </c>
       <c r="E112" t="n">
         <v>0.27</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-169.7220936000001</v>
+        <v>-171.7144335999998</v>
       </c>
       <c r="K112" t="n">
         <v>22.219999</v>
@@ -6761,22 +6761,22 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="F113" t="n">
-        <v>17.9</v>
+        <v>30.8</v>
       </c>
       <c r="G113" t="n">
         <v>6.428999999999917</v>
       </c>
       <c r="H113" t="n">
-        <v>29.9</v>
+        <v>17</v>
       </c>
       <c r="I113" t="n">
         <v>5.252999999999986</v>
       </c>
       <c r="J113" t="n">
-        <v>-444.7303886928801</v>
+        <v>-465.7471722640088</v>
       </c>
       <c r="K113" t="n">
         <v>22.33</v>
@@ -6820,19 +6820,19 @@
         <v>0.5</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>7.594</v>
+        <v>6.428999999999917</v>
       </c>
       <c r="H114" t="n">
-        <v>47.8</v>
+        <v>43</v>
       </c>
       <c r="I114" t="n">
         <v>5.252999999999986</v>
       </c>
       <c r="J114" t="n">
-        <v>-165.7963013889594</v>
+        <v>-421.9474269190798</v>
       </c>
       <c r="K114" t="n">
         <v>22.469999</v>
@@ -6876,19 +6876,19 @@
         <v>0.2699999999999818</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G115" t="n">
-        <v>7.594</v>
+        <v>6.428999999999917</v>
       </c>
       <c r="H115" t="n">
-        <v>47.8</v>
+        <v>45.3</v>
       </c>
       <c r="I115" t="n">
         <v>5.252999999999986</v>
       </c>
       <c r="J115" t="n">
-        <v>-56.11098797856435</v>
+        <v>-419.1979099399994</v>
       </c>
       <c r="K115" t="n">
         <v>24.25</v>
@@ -6944,7 +6944,7 @@
         <v>5.253999999999962</v>
       </c>
       <c r="J116" t="n">
-        <v>-49.26936443391904</v>
+        <v>-202.8261527630766</v>
       </c>
       <c r="K116" t="n">
         <v>22.16</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>7.335</v>
+        <v>7.282</v>
       </c>
       <c r="H117" t="n">
         <v>47.8</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>7.335</v>
+        <v>7.282</v>
       </c>
       <c r="H118" t="n">
         <v>47.8</v>
@@ -7056,7 +7056,7 @@
         <v>5.253999999999962</v>
       </c>
       <c r="J118" t="n">
-        <v>-92.26718422309426</v>
+        <v>-92.26718422309425</v>
       </c>
       <c r="K118" t="n">
         <v>21.2</v>
@@ -7112,7 +7112,7 @@
         <v>11.29300000000001</v>
       </c>
       <c r="J119" t="n">
-        <v>-392.8497426772365</v>
+        <v>-392.8497426772368</v>
       </c>
       <c r="K119" t="n">
         <v>20.74</v>
@@ -7156,19 +7156,19 @@
         <v>0.33</v>
       </c>
       <c r="F120" t="n">
-        <v>41.1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>11.48499999999996</v>
+        <v>13.091</v>
       </c>
       <c r="H120" t="n">
-        <v>6.7</v>
+        <v>47.8</v>
       </c>
       <c r="I120" t="n">
         <v>11.29300000000001</v>
       </c>
       <c r="J120" t="n">
-        <v>1002.175428530991</v>
+        <v>-397.3434193654869</v>
       </c>
       <c r="K120" t="n">
         <v>20.27</v>
@@ -7212,19 +7212,19 @@
         <v>0.33</v>
       </c>
       <c r="F121" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>17.09999999999997</v>
+        <v>18.735</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I121" t="n">
-        <v>16.829</v>
+        <v>16.55699999999996</v>
       </c>
       <c r="J121" t="n">
-        <v>946.4509251932786</v>
+        <v>-655.1110028845393</v>
       </c>
       <c r="K121" t="n">
         <v>19.559999</v>
@@ -7277,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>25.736</v>
+        <v>22.60699999999991</v>
       </c>
       <c r="J122" t="n">
-        <v>362.9095793561025</v>
+        <v>362.9095793561022</v>
       </c>
       <c r="K122" t="n">
         <v>10.96</v>
@@ -7560,7 +7560,7 @@
         <v>16.542</v>
       </c>
       <c r="J127" t="n">
-        <v>752.0367978622843</v>
+        <v>650.9745395655558</v>
       </c>
       <c r="K127" t="n">
         <v>1.39</v>
@@ -7604,19 +7604,19 @@
         <v>0.2899999999999636</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G128" t="n">
-        <v>8.018000000000001</v>
+        <v>7.225999999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>47.8</v>
+        <v>45.90000000000001</v>
       </c>
       <c r="I128" t="n">
         <v>7.495000000000005</v>
       </c>
       <c r="J128" t="n">
-        <v>-230.6721800358326</v>
+        <v>-536.7597121407464</v>
       </c>
       <c r="K128" t="n">
         <v>11.68</v>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>8.09</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H129" t="n">
         <v>47.8</v>
@@ -7672,7 +7672,7 @@
         <v>6.312999999999988</v>
       </c>
       <c r="J129" t="n">
-        <v>-437.1377159073928</v>
+        <v>-391.7460346428614</v>
       </c>
       <c r="K129" t="n">
         <v>14.95</v>
@@ -7716,19 +7716,19 @@
         <v>0.4</v>
       </c>
       <c r="F130" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>8.062999999999988</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H130" t="n">
-        <v>44.3</v>
+        <v>47.8</v>
       </c>
       <c r="I130" t="n">
         <v>6.312999999999988</v>
       </c>
       <c r="J130" t="n">
-        <v>-475.9331098864598</v>
+        <v>-399.2422852437333</v>
       </c>
       <c r="K130" t="n">
         <v>14.18</v>
@@ -7766,7 +7766,7 @@
         <v>135</v>
       </c>
       <c r="D131" t="n">
-        <v>7.800000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="E131" t="n">
         <v>0.4</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-163.2843842006864</v>
+        <v>-684.1801818695993</v>
       </c>
       <c r="K131" t="n">
         <v>13.24</v>
@@ -7822,7 +7822,7 @@
         <v>135</v>
       </c>
       <c r="D132" t="n">
-        <v>14.7</v>
+        <v>47.8</v>
       </c>
       <c r="E132" t="n">
         <v>0.4</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-165.7909703395638</v>
+        <v>-1398.077738257048</v>
       </c>
       <c r="K132" t="n">
         <v>13.11</v>
@@ -7878,7 +7878,7 @@
         <v>135</v>
       </c>
       <c r="D133" t="n">
-        <v>47.8</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="E133" t="n">
         <v>0.4</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1180.321952693793</v>
+        <v>-179.5722539999999</v>
       </c>
       <c r="K133" t="n">
         <v>13</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1013.945046236205</v>
+        <v>-994.5599942805388</v>
       </c>
       <c r="K134" t="n">
         <v>12.85</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>914.3515431781908</v>
+        <v>-1155.994870707589</v>
       </c>
       <c r="K135" t="n">
         <v>12.77</v>
@@ -8046,7 +8046,7 @@
         <v>135</v>
       </c>
       <c r="D136" t="n">
-        <v>47.8</v>
+        <v>17.5</v>
       </c>
       <c r="E136" t="n">
         <v>0.4</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1252.291426280958</v>
+        <v>-168.6122539999998</v>
       </c>
       <c r="K136" t="n">
         <v>13</v>
@@ -8120,7 +8120,7 @@
         <v>6.168</v>
       </c>
       <c r="J137" t="n">
-        <v>945.061361640457</v>
+        <v>-600.0758875123796</v>
       </c>
       <c r="K137" t="n">
         <v>12.94</v>
@@ -8176,7 +8176,7 @@
         <v>6.168</v>
       </c>
       <c r="J138" t="n">
-        <v>1306.213687925956</v>
+        <v>470.4820059813123</v>
       </c>
       <c r="K138" t="n">
         <v>13.67</v>
@@ -8229,10 +8229,10 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>5.305</v>
+        <v>6.168</v>
       </c>
       <c r="J139" t="n">
-        <v>1455.657712634874</v>
+        <v>291.6058039390884</v>
       </c>
       <c r="K139" t="n">
         <v>14.12</v>
@@ -8276,19 +8276,19 @@
         <v>0.2899999999999636</v>
       </c>
       <c r="F140" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>6.541999999999973</v>
+        <v>6.965</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I140" t="n">
-        <v>6.21</v>
+        <v>5.242999999999995</v>
       </c>
       <c r="J140" t="n">
-        <v>1468.244218564821</v>
+        <v>-247.3661995358797</v>
       </c>
       <c r="K140" t="n">
         <v>14.6</v>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>6.21</v>
+        <v>5.306</v>
       </c>
       <c r="J141" t="n">
         <v>1452.928649048743</v>
@@ -8400,7 +8400,7 @@
         <v>6.21</v>
       </c>
       <c r="J142" t="n">
-        <v>1423.244296497079</v>
+        <v>1420.705089897079</v>
       </c>
       <c r="K142" t="n">
         <v>12.94</v>
@@ -8444,19 +8444,19 @@
         <v>0.27</v>
       </c>
       <c r="F143" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>11.28899999999999</v>
+        <v>11.485</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I143" t="n">
-        <v>12.082</v>
+        <v>11.27499999999992</v>
       </c>
       <c r="J143" t="n">
-        <v>1177.536853385589</v>
+        <v>-421.5620146187125</v>
       </c>
       <c r="K143" t="n">
         <v>12.22</v>
@@ -8500,19 +8500,19 @@
         <v>0.27</v>
       </c>
       <c r="F144" t="n">
-        <v>47.8</v>
+        <v>12.3</v>
       </c>
       <c r="G144" t="n">
         <v>11.28899999999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="I144" t="n">
-        <v>11.486</v>
+        <v>11.27499999999992</v>
       </c>
       <c r="J144" t="n">
-        <v>1162.472887398725</v>
+        <v>-14.47031195860261</v>
       </c>
       <c r="K144" t="n">
         <v>12.4</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>17.312</v>
+        <v>16.829</v>
       </c>
       <c r="J145" t="n">
         <v>786.2811002333144</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1061.274745601872</v>
+        <v>1061.274745601874</v>
       </c>
       <c r="K149" t="n">
         <v>-0.3</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1081.358748329154</v>
+        <v>1081.358748329152</v>
       </c>
       <c r="K150" t="n">
         <v>0.1</v>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>15.953</v>
+        <v>15.09100000000001</v>
       </c>
       <c r="J151" t="n">
-        <v>962.4379000645871</v>
+        <v>776.6262033867454</v>
       </c>
       <c r="K151" t="n">
         <v>13.4</v>
@@ -8948,19 +8948,19 @@
         <v>0.2699999999999818</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="G152" t="n">
-        <v>7.808</v>
+        <v>7.314999999999998</v>
       </c>
       <c r="H152" t="n">
-        <v>47.8</v>
+        <v>21.3</v>
       </c>
       <c r="I152" t="n">
         <v>7.467999999999904</v>
       </c>
       <c r="J152" t="n">
-        <v>-226.0775154530887</v>
+        <v>-528.9006848599998</v>
       </c>
       <c r="K152" t="n">
         <v>19.219999</v>
@@ -9004,19 +9004,19 @@
         <v>0.3699999999998909</v>
       </c>
       <c r="F153" t="n">
-        <v>2.6</v>
+        <v>28.4</v>
       </c>
       <c r="G153" t="n">
         <v>7.887999999999977</v>
       </c>
       <c r="H153" t="n">
-        <v>45.2</v>
+        <v>19.4</v>
       </c>
       <c r="I153" t="n">
         <v>6.286000000000001</v>
       </c>
       <c r="J153" t="n">
-        <v>-474.041133964718</v>
+        <v>-519.4970964800002</v>
       </c>
       <c r="K153" t="n">
         <v>19.74</v>
@@ -9060,19 +9060,19 @@
         <v>0.3699999999998909</v>
       </c>
       <c r="F154" t="n">
-        <v>10.6</v>
+        <v>43.90000000000001</v>
       </c>
       <c r="G154" t="n">
         <v>7.887999999999977</v>
       </c>
       <c r="H154" t="n">
-        <v>37.2</v>
+        <v>3.9</v>
       </c>
       <c r="I154" t="n">
         <v>6.286000000000001</v>
       </c>
       <c r="J154" t="n">
-        <v>-486.8597576163599</v>
+        <v>-545.4961454819296</v>
       </c>
       <c r="K154" t="n">
         <v>19.860001</v>
@@ -9110,7 +9110,7 @@
         <v>149.82</v>
       </c>
       <c r="D155" t="n">
-        <v>32.6</v>
+        <v>47.8</v>
       </c>
       <c r="E155" t="n">
         <v>0.3699999999998909</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-177.1933387999997</v>
+        <v>-480.1898475646822</v>
       </c>
       <c r="K155" t="n">
         <v>19.870001</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-957.0304103922102</v>
+        <v>-2127.477322543743</v>
       </c>
       <c r="K156" t="n">
         <v>19.91</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-520.3456745452597</v>
+        <v>-766.9039193471784</v>
       </c>
       <c r="K157" t="n">
         <v>19.809999</v>
@@ -9278,7 +9278,7 @@
         <v>149.82</v>
       </c>
       <c r="D158" t="n">
-        <v>39.90000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="E158" t="n">
         <v>0.2699999999999818</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-179.1520032</v>
+        <v>-2138.493862616482</v>
       </c>
       <c r="K158" t="n">
         <v>19.68</v>
@@ -9334,7 +9334,7 @@
         <v>149.82</v>
       </c>
       <c r="D159" t="n">
-        <v>31.7</v>
+        <v>47.8</v>
       </c>
       <c r="E159" t="n">
         <v>0.2699999999999818</v>
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-176.1154775999998</v>
+        <v>-1936.289021787464</v>
       </c>
       <c r="K159" t="n">
         <v>19.610001</v>
@@ -9390,7 +9390,7 @@
         <v>149.82</v>
       </c>
       <c r="D160" t="n">
-        <v>37.5</v>
+        <v>47.8</v>
       </c>
       <c r="E160" t="n">
         <v>0.2699999999999818</v>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>-178.2632639999999</v>
+        <v>-1479.55726683187</v>
       </c>
       <c r="K160" t="n">
         <v>19.549999</v>
@@ -9452,19 +9452,19 @@
         <v>0.2699999999999818</v>
       </c>
       <c r="F161" t="n">
-        <v>14.3</v>
+        <v>47.8</v>
       </c>
       <c r="G161" t="n">
         <v>6.428999999999917</v>
       </c>
       <c r="H161" t="n">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>5.276999999999987</v>
+        <v>6.139</v>
       </c>
       <c r="J161" t="n">
-        <v>-451.0008201660304</v>
+        <v>-1601.230689954576</v>
       </c>
       <c r="K161" t="n">
         <v>19.549999</v>
@@ -9508,19 +9508,19 @@
         <v>0.2699999999999818</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G162" t="n">
-        <v>7.482</v>
+        <v>6.428999999999917</v>
       </c>
       <c r="H162" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>5.276999999999987</v>
+        <v>6.139</v>
       </c>
       <c r="J162" t="n">
-        <v>-285.5443266885223</v>
+        <v>-1009.043168430871</v>
       </c>
       <c r="K162" t="n">
         <v>19.82</v>
@@ -9564,19 +9564,19 @@
         <v>0.2699999999999818</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="G163" t="n">
-        <v>7.482</v>
+        <v>6.428999999999917</v>
       </c>
       <c r="H163" t="n">
-        <v>47.8</v>
+        <v>15.7</v>
       </c>
       <c r="I163" t="n">
         <v>5.276999999999987</v>
       </c>
       <c r="J163" t="n">
-        <v>-82.46040684486979</v>
+        <v>-480.4516953000007</v>
       </c>
       <c r="K163" t="n">
         <v>19.959999</v>
@@ -9623,16 +9623,16 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>7.496</v>
+        <v>6.769000000000005</v>
       </c>
       <c r="H164" t="n">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="I164" t="n">
         <v>5.277999999999963</v>
       </c>
       <c r="J164" t="n">
-        <v>-87.46001636537135</v>
+        <v>-426.5765919400001</v>
       </c>
       <c r="K164" t="n">
         <v>19.82</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>7.496</v>
+        <v>7.335000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>47.8</v>
@@ -9688,7 +9688,7 @@
         <v>5.277999999999963</v>
       </c>
       <c r="J165" t="n">
-        <v>-90.51656894339663</v>
+        <v>-92.95826415219611</v>
       </c>
       <c r="K165" t="n">
         <v>19.58</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>7.496</v>
+        <v>7.335000000000001</v>
       </c>
       <c r="H166" t="n">
         <v>47.8</v>
@@ -9744,7 +9744,7 @@
         <v>5.277999999999963</v>
       </c>
       <c r="J166" t="n">
-        <v>-88.43569517915058</v>
+        <v>-88.43569517915047</v>
       </c>
       <c r="K166" t="n">
         <v>19.9</v>
@@ -9800,7 +9800,7 @@
         <v>11.43899999999991</v>
       </c>
       <c r="J167" t="n">
-        <v>-388.3129366585988</v>
+        <v>-388.3129366585987</v>
       </c>
       <c r="K167" t="n">
         <v>18.709999</v>
@@ -9856,7 +9856,7 @@
         <v>11.43899999999991</v>
       </c>
       <c r="J168" t="n">
-        <v>-392.0292164715924</v>
+        <v>-392.0292164715923</v>
       </c>
       <c r="K168" t="n">
         <v>18.299999</v>
@@ -9900,19 +9900,19 @@
         <v>0.2699999999999818</v>
       </c>
       <c r="F169" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>17.346</v>
+        <v>18.735</v>
       </c>
       <c r="H169" t="n">
-        <v>7</v>
+        <v>47.8</v>
       </c>
       <c r="I169" t="n">
         <v>16.75899999999996</v>
       </c>
       <c r="J169" t="n">
-        <v>814.9490817789651</v>
+        <v>-649.0909945298195</v>
       </c>
       <c r="K169" t="n">
         <v>17.9</v>
